--- a/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27499E8B-DA8E-49BF-9BC6-2F3C9FD44033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560DF94-A5DE-4E59-9CA0-2CC88391CCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="2" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6BAA5-37B3-470A-AA0A-11ED5B065C20}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -2825,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A72C2-BD47-49D9-BCA8-A1B80ED921AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560DF94-A5DE-4E59-9CA0-2CC88391CCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64890E4-A4F3-42C8-BDFE-D28EF8D74748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>District Cells</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -47,283 +44,286 @@
     <t>2</t>
   </si>
   <si>
+    <t>Middle Row</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Back Row</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cell Conditions</t>
+  </si>
+  <si>
+    <t>Zone Conditions</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Sophie Rayner</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>Aarron Kelly</t>
+  </si>
+  <si>
+    <t>Ava Lee</t>
+  </si>
+  <si>
+    <t>Esther Sido</t>
+  </si>
+  <si>
+    <t>Benedict Hobday</t>
+  </si>
+  <si>
+    <t>Violet Hudson</t>
+  </si>
+  <si>
+    <t>Samuel Dixon</t>
+  </si>
+  <si>
+    <t>Nancy Enyoazu</t>
+  </si>
+  <si>
+    <t>Caitlin Boyd</t>
+  </si>
+  <si>
+    <t>Benjamin Hillary</t>
+  </si>
+  <si>
+    <t>Madison Taylor</t>
+  </si>
+  <si>
+    <t>James Calderon</t>
+  </si>
+  <si>
+    <t>Spencer Rowe</t>
+  </si>
+  <si>
+    <t>William Hunt</t>
+  </si>
+  <si>
+    <t>Stanley Hirst</t>
+  </si>
+  <si>
+    <t>James Eilbeck</t>
+  </si>
+  <si>
+    <t>Benjamin Finn</t>
+  </si>
+  <si>
+    <t>Lexi Green</t>
+  </si>
+  <si>
+    <t>Alex Sentance</t>
+  </si>
+  <si>
+    <t>Katrina Petersone</t>
+  </si>
+  <si>
+    <t>James Shilton</t>
+  </si>
+  <si>
+    <t>Matthew Homan</t>
+  </si>
+  <si>
+    <t>Ruby Haigh</t>
+  </si>
+  <si>
+    <t>Niko Morris</t>
+  </si>
+  <si>
+    <t>Thomas Barrett</t>
+  </si>
+  <si>
+    <t>Brooke Layton</t>
+  </si>
+  <si>
+    <t>Mariam Keita</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>Eva Redican</t>
+  </si>
+  <si>
+    <t>Niamh Teale</t>
+  </si>
+  <si>
+    <t>Isabella Holmes</t>
+  </si>
+  <si>
+    <t>Jayden Nasa-Mereni</t>
+  </si>
+  <si>
+    <t>Cheryl Kanyimo</t>
+  </si>
+  <si>
+    <t>Cassie Strachan</t>
+  </si>
+  <si>
+    <t>Elliott Long</t>
+  </si>
+  <si>
+    <t>Lucy Webster</t>
+  </si>
+  <si>
+    <t>Patryk Rudnicki</t>
+  </si>
+  <si>
+    <t>Jude Fitzsimons</t>
+  </si>
+  <si>
+    <t>Ethan Durham</t>
+  </si>
+  <si>
+    <t>Lewis Dacre</t>
+  </si>
+  <si>
+    <t>Callum Foster</t>
+  </si>
+  <si>
+    <t>Lexie Starkey</t>
+  </si>
+  <si>
+    <t>Bethany Greer</t>
+  </si>
+  <si>
+    <t>Hugo Bird</t>
+  </si>
+  <si>
+    <t>Jayden Parsons</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Iteration Count</t>
+  </si>
+  <si>
+    <t>Relitive Cell Conditions</t>
+  </si>
+  <si>
+    <t>Relitive Zone Conditions</t>
+  </si>
+  <si>
+    <t>(1, 0) (-1, 0) (0, 1) (0, -1)</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Disabled Cells</t>
+  </si>
+  <si>
+    <t>Disabled Zones</t>
+  </si>
+  <si>
+    <t>Disabled Identifiers</t>
+  </si>
+  <si>
+    <t>Carried Cells</t>
+  </si>
+  <si>
+    <t>Carried Zones</t>
+  </si>
+  <si>
+    <t>Carried Identifiers</t>
+  </si>
+  <si>
+    <t>Disable Zone Collapse Identifiers</t>
+  </si>
+  <si>
+    <t>seating_plan_maths</t>
+  </si>
+  <si>
+    <t>(class, english)</t>
+  </si>
+  <si>
+    <t>seating_plan_english</t>
+  </si>
+  <si>
+    <t>(class, maths)</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Zone Collapsed Identifiers</t>
+  </si>
+  <si>
+    <t>Entity Identifier Conditions</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>row_front_left</t>
+  </si>
+  <si>
+    <t>(class, maths) (class, english)</t>
+  </si>
+  <si>
+    <t>row_front_right</t>
+  </si>
+  <si>
+    <t>row_middle_left</t>
+  </si>
+  <si>
+    <t>row_middle_right</t>
+  </si>
+  <si>
+    <t>row_back_left</t>
+  </si>
+  <si>
+    <t>row_back_right</t>
+  </si>
+  <si>
+    <t>Disable  Drop Iteration Count</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Middle Row</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Back Row</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Cell Conditions</t>
-  </si>
-  <si>
-    <t>Zone Conditions</t>
-  </si>
-  <si>
-    <t>Identifiers</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>Sophie Rayner</t>
-  </si>
-  <si>
-    <t>maths</t>
-  </si>
-  <si>
-    <t>Aarron Kelly</t>
-  </si>
-  <si>
-    <t>Ava Lee</t>
-  </si>
-  <si>
-    <t>Esther Sido</t>
-  </si>
-  <si>
-    <t>Benedict Hobday</t>
-  </si>
-  <si>
-    <t>Violet Hudson</t>
-  </si>
-  <si>
-    <t>Samuel Dixon</t>
-  </si>
-  <si>
-    <t>Nancy Enyoazu</t>
-  </si>
-  <si>
-    <t>Caitlin Boyd</t>
-  </si>
-  <si>
-    <t>Benjamin Hillary</t>
-  </si>
-  <si>
-    <t>Madison Taylor</t>
-  </si>
-  <si>
-    <t>James Calderon</t>
-  </si>
-  <si>
-    <t>Spencer Rowe</t>
-  </si>
-  <si>
-    <t>William Hunt</t>
-  </si>
-  <si>
-    <t>Stanley Hirst</t>
-  </si>
-  <si>
-    <t>James Eilbeck</t>
-  </si>
-  <si>
-    <t>Benjamin Finn</t>
-  </si>
-  <si>
-    <t>Lexi Green</t>
-  </si>
-  <si>
-    <t>Alex Sentance</t>
-  </si>
-  <si>
-    <t>Katrina Petersone</t>
-  </si>
-  <si>
-    <t>James Shilton</t>
-  </si>
-  <si>
-    <t>Matthew Homan</t>
-  </si>
-  <si>
-    <t>Ruby Haigh</t>
-  </si>
-  <si>
-    <t>Niko Morris</t>
-  </si>
-  <si>
-    <t>Thomas Barrett</t>
-  </si>
-  <si>
-    <t>Brooke Layton</t>
-  </si>
-  <si>
-    <t>Mariam Keita</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>Eva Redican</t>
-  </si>
-  <si>
-    <t>Niamh Teale</t>
-  </si>
-  <si>
-    <t>Isabella Holmes</t>
-  </si>
-  <si>
-    <t>Jayden Nasa-Mereni</t>
-  </si>
-  <si>
-    <t>Cheryl Kanyimo</t>
-  </si>
-  <si>
-    <t>Cassie Strachan</t>
-  </si>
-  <si>
-    <t>Elliott Long</t>
-  </si>
-  <si>
-    <t>Lucy Webster</t>
-  </si>
-  <si>
-    <t>Patryk Rudnicki</t>
-  </si>
-  <si>
-    <t>Jude Fitzsimons</t>
-  </si>
-  <si>
-    <t>Ethan Durham</t>
-  </si>
-  <si>
-    <t>Lewis Dacre</t>
-  </si>
-  <si>
-    <t>Callum Foster</t>
-  </si>
-  <si>
-    <t>Lexie Starkey</t>
-  </si>
-  <si>
-    <t>Bethany Greer</t>
-  </si>
-  <si>
-    <t>Hugo Bird</t>
-  </si>
-  <si>
-    <t>Jayden Parsons</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Iteration Count</t>
-  </si>
-  <si>
-    <t>Relitive Cell Conditions</t>
-  </si>
-  <si>
-    <t>Relitive Zone Conditions</t>
-  </si>
-  <si>
-    <t>(1, 0) (-1, 0) (0, 1) (0, -1)</t>
-  </si>
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>Disabled Cells</t>
-  </si>
-  <si>
-    <t>Disabled Zones</t>
-  </si>
-  <si>
-    <t>Disabled Identifiers</t>
-  </si>
-  <si>
-    <t>Carried Cells</t>
-  </si>
-  <si>
-    <t>Carried Zones</t>
-  </si>
-  <si>
-    <t>Carried Identifiers</t>
-  </si>
-  <si>
-    <t>Disable Zone Collapse Identifiers</t>
-  </si>
-  <si>
-    <t>seating_plan_maths</t>
-  </si>
-  <si>
-    <t>(class, english)</t>
-  </si>
-  <si>
-    <t>seating_plan_english</t>
-  </si>
-  <si>
-    <t>(class, maths)</t>
-  </si>
-  <si>
-    <t>Zones</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Zone Collapsed Identifiers</t>
-  </si>
-  <si>
-    <t>Entity Identifier Conditions</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>row_front_left</t>
-  </si>
-  <si>
-    <t>(class, maths) (class, english)</t>
-  </si>
-  <si>
-    <t>row_front_right</t>
-  </si>
-  <si>
-    <t>row_middle_left</t>
-  </si>
-  <si>
-    <t>row_middle_right</t>
-  </si>
-  <si>
-    <t>row_back_left</t>
-  </si>
-  <si>
-    <t>row_back_right</t>
-  </si>
-  <si>
-    <t>Disable  Drop Iteration Count</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1280,37 +1280,37 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -1329,44 +1329,44 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1464,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1475,7 +1475,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1489,16 +1489,16 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1521,15 +1521,15 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10"/>
       <c r="K3" s="2"/>
@@ -1547,22 +1547,22 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1644,11 +1644,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1702,11 +1702,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1789,11 +1789,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1818,11 +1818,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1847,11 +1847,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1876,11 +1876,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1992,11 +1992,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2021,11 +2021,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2079,11 +2079,11 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2195,11 +2195,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I28" s="5"/>
     </row>
@@ -2253,11 +2253,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I29" s="5"/>
     </row>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I30" s="5"/>
     </row>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -2313,11 +2313,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33" s="5"/>
     </row>
@@ -2332,11 +2332,11 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I34" s="5"/>
     </row>
@@ -2351,11 +2351,11 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2389,11 +2389,11 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -2408,11 +2408,11 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -2427,11 +2427,11 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -2446,11 +2446,11 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I41" s="5"/>
     </row>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I45" s="5"/>
     </row>
@@ -2560,11 +2560,11 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I46" s="5"/>
     </row>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" s="5"/>
     </row>
@@ -2598,11 +2598,11 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I48" s="5"/>
     </row>
@@ -2617,11 +2617,11 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I49" s="5"/>
     </row>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I50" s="5"/>
     </row>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I51" s="5"/>
     </row>
@@ -2674,11 +2674,11 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I52" s="5"/>
     </row>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I53" s="5"/>
     </row>
@@ -2712,11 +2712,11 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I54" s="5"/>
     </row>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I55" s="5"/>
     </row>
@@ -2750,11 +2750,11 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I56" s="5"/>
     </row>
@@ -2769,17 +2769,17 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2838,56 +2838,56 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2956,7 +2956,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2968,51 +2968,51 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3021,14 +3021,14 @@
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3150,7 +3150,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3173,7 +3173,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3218,15 +3218,15 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10"/>
       <c r="K3" s="2"/>
@@ -3244,22 +3244,22 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3355,13 +3355,13 @@
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>

--- a/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64890E4-A4F3-42C8-BDFE-D28EF8D74748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A234A5-5543-45FD-9072-25885C00B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6BAA5-37B3-470A-AA0A-11ED5B065C20}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1448,9 +1448,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52552880-DF7C-412A-93D7-C0D5BD19AF8A}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2281,7 +2281,23 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>26</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -2290,11 +2306,11 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
@@ -2309,11 +2325,11 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
@@ -2328,11 +2344,11 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
@@ -2347,11 +2363,11 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -2366,11 +2382,11 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
@@ -2385,11 +2401,11 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
@@ -2404,11 +2420,11 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
@@ -2423,11 +2439,11 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
@@ -2442,11 +2458,11 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
@@ -2461,11 +2477,11 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
@@ -2480,11 +2496,11 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
@@ -2499,11 +2515,11 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -2518,11 +2534,11 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
@@ -2537,11 +2553,11 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
@@ -2556,11 +2572,11 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
@@ -2575,11 +2591,11 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
@@ -2594,11 +2610,11 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
@@ -2613,11 +2629,11 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
@@ -2632,11 +2648,11 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
@@ -2651,11 +2667,11 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
@@ -2670,11 +2686,11 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
@@ -2689,11 +2705,11 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
@@ -2708,11 +2724,11 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
@@ -2727,11 +2743,11 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -2746,11 +2762,11 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
@@ -2759,51 +2775,32 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>1</v>
+      <c r="A57" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5">
-        <v>51</v>
-      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="F57" s="6"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="5"/>
-      <c r="F61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2826,7 +2823,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2938,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A234A5-5543-45FD-9072-25885C00B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594B4AD-D4D4-420D-951F-C4850DAF312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>

--- a/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
+++ b/examples/eop_config/spreadsheets/example-classroom_seating_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594B4AD-D4D4-420D-951F-C4850DAF312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AF6A5-2F55-4103-8B5A-69EDCD099335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1450,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52552880-DF7C-412A-93D7-C0D5BD19AF8A}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E963BB-7B77-4EE7-A630-9D93E0ADAB12}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
